--- a/medicine/Handicap/Quotient_du_spectre_autistique/Quotient_du_spectre_autistique.xlsx
+++ b/medicine/Handicap/Quotient_du_spectre_autistique/Quotient_du_spectre_autistique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le quotient du spectre autistique (en anglais autism-spectrum quotient (AQ)) est un questionnaire publié en 2001 par Simon Baron-Cohen et ses collègues du Centre de Recherche sur l'Autisme à Cambridge, au Royaume-Uni. Composé d'une cinquantaine de questions, il vise à déterminer si les adultes d'intelligence moyenne présentent des symptômes d'autisme ou d'autres troubles du spectre autistique[1]. Plus récemment, des versions pour les enfants[2] et les adolescents[3] ont également été publiées. 
-Le test a été popularisé par Wired en décembre 2001 lors de sa publication avec l'article « The Geek Syndrome »[4]. Il est couramment utilisé pour l'auto-diagnostic du syndrome d'Asperger et de l'autisme de haut niveau, bien qu'il ne soit pas destiné à être un outil de diagnostic[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le quotient du spectre autistique (en anglais autism-spectrum quotient (AQ)) est un questionnaire publié en 2001 par Simon Baron-Cohen et ses collègues du Centre de Recherche sur l'Autisme à Cambridge, au Royaume-Uni. Composé d'une cinquantaine de questions, il vise à déterminer si les adultes d'intelligence moyenne présentent des symptômes d'autisme ou d'autres troubles du spectre autistique. Plus récemment, des versions pour les enfants et les adolescents ont également été publiées. 
+Le test a été popularisé par Wired en décembre 2001 lors de sa publication avec l'article « The Geek Syndrome ». Il est couramment utilisé pour l'auto-diagnostic du syndrome d'Asperger et de l'autisme de haut niveau, bien qu'il ne soit pas destiné à être un outil de diagnostic.
 </t>
         </is>
       </c>
